--- a/data/financial_statements/sofp/MSCI.xlsx
+++ b/data/financial_statements/sofp/MSCI.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>867000000</v>
+        <v>867112000</v>
       </c>
       <c r="C2">
-        <v>842000000</v>
+        <v>842300000</v>
       </c>
       <c r="D2">
-        <v>679000000</v>
+        <v>679315000</v>
       </c>
       <c r="E2">
-        <v>1421000000</v>
+        <v>1421449000</v>
       </c>
       <c r="F2">
-        <v>1285000000</v>
+        <v>1284664000</v>
       </c>
       <c r="G2">
         <v>1972002000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>525000000</v>
+        <v>525360000</v>
       </c>
       <c r="C3">
-        <v>587000000</v>
+        <v>586815000</v>
       </c>
       <c r="D3">
-        <v>592000000</v>
+        <v>592326000</v>
       </c>
       <c r="E3">
-        <v>665000000</v>
+        <v>664511000</v>
       </c>
       <c r="F3">
-        <v>497000000</v>
+        <v>496726000</v>
       </c>
       <c r="G3">
         <v>488570000</v>
@@ -858,8 +969,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>134000000</v>
@@ -905,23 +1016,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1527000000</v>
+        <v>1526908000</v>
       </c>
       <c r="C5">
-        <v>1489000000</v>
+        <v>1489081000</v>
       </c>
       <c r="D5">
-        <v>1332000000</v>
+        <v>1332421000</v>
       </c>
       <c r="E5">
-        <v>2143000000</v>
+        <v>2143410000</v>
       </c>
       <c r="F5">
-        <v>1847000000</v>
+        <v>1847351000</v>
       </c>
       <c r="G5">
         <v>2558543000</v>
@@ -1027,23 +1138,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>186000000</v>
+        <v>54341000</v>
       </c>
       <c r="C6">
-        <v>188000000</v>
+        <v>59390000</v>
       </c>
       <c r="D6">
-        <v>199000000</v>
+        <v>64682000</v>
       </c>
       <c r="E6">
-        <v>211000000</v>
+        <v>66715000</v>
       </c>
       <c r="F6">
-        <v>224000000</v>
+        <v>70543000</v>
       </c>
       <c r="G6">
         <v>71432000</v>
@@ -1149,23 +1260,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>215000000</v>
+        <v>215370000</v>
       </c>
       <c r="C7">
-        <v>217000000</v>
+        <v>216554000</v>
       </c>
       <c r="D7">
-        <v>218000000</v>
+        <v>218128000</v>
       </c>
       <c r="E7">
-        <v>219000000</v>
+        <v>218763000</v>
       </c>
       <c r="F7">
-        <v>187000000</v>
+        <v>186502000</v>
       </c>
       <c r="G7">
         <v>187452000</v>
@@ -1187,23 +1298,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>2792000000</v>
+        <v>2791723000</v>
       </c>
       <c r="C8">
-        <v>2808000000</v>
+        <v>2807516000</v>
       </c>
       <c r="D8">
-        <v>2820000000</v>
+        <v>2820257000</v>
       </c>
       <c r="E8">
-        <v>2830000000</v>
+        <v>2829727000</v>
       </c>
       <c r="F8">
-        <v>2828000000</v>
+        <v>2828048000</v>
       </c>
       <c r="G8">
         <v>1775085000</v>
@@ -1309,8 +1420,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>27939000</v>
@@ -1401,23 +1512,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>29000000</v>
+        <v>29474000</v>
       </c>
       <c r="C10">
-        <v>68000000</v>
+        <v>68473000</v>
       </c>
       <c r="D10">
-        <v>68000000</v>
+        <v>68361000</v>
       </c>
       <c r="E10">
-        <v>63000000</v>
+        <v>63385000</v>
       </c>
       <c r="F10">
-        <v>28000000</v>
+        <v>27674000</v>
       </c>
       <c r="G10">
         <v>24798000</v>
@@ -1523,8 +1634,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>3250619000</v>
@@ -1645,23 +1756,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>4778000000</v>
+        <v>4777527000</v>
       </c>
       <c r="C12">
-        <v>4833000000</v>
+        <v>4833352000</v>
       </c>
       <c r="D12">
-        <v>4692000000</v>
+        <v>4691829000</v>
       </c>
       <c r="E12">
-        <v>5507000000</v>
+        <v>5506703000</v>
       </c>
       <c r="F12">
-        <v>5143000000</v>
+        <v>5142669000</v>
       </c>
       <c r="G12">
         <v>4791076000</v>
@@ -1767,23 +1878,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>5000000</v>
+        <v>5303000</v>
       </c>
       <c r="C13">
-        <v>9000000</v>
+        <v>9295000</v>
       </c>
       <c r="D13">
-        <v>13000000</v>
+        <v>12956000</v>
       </c>
       <c r="E13">
-        <v>13000000</v>
+        <v>13448000</v>
       </c>
       <c r="F13">
-        <v>10000000</v>
+        <v>9884000</v>
       </c>
       <c r="G13">
         <v>11253000</v>
@@ -1889,8 +2000,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>142282000</v>
@@ -2011,14 +2122,14 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>31000000</v>
+        <v>8711000</v>
       </c>
       <c r="C15">
-        <v>31000000</v>
+        <v>6532000</v>
       </c>
       <c r="D15">
         <v>23000000</v>
@@ -2073,8 +2184,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>3770000</v>
@@ -2141,8 +2252,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>735710000</v>
@@ -2263,8 +2374,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1027000000</v>
@@ -2310,23 +2421,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1067000000</v>
+        <v>1067252000</v>
       </c>
       <c r="C19">
-        <v>1120000000</v>
+        <v>1120280000</v>
       </c>
       <c r="D19">
-        <v>1160000000</v>
+        <v>1160426000</v>
       </c>
       <c r="E19">
-        <v>1251000000</v>
+        <v>1250937000</v>
       </c>
       <c r="F19">
-        <v>1017000000</v>
+        <v>1016929000</v>
       </c>
       <c r="G19">
         <v>950672000</v>
@@ -2432,23 +2543,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>4642000000</v>
+        <v>4504291000</v>
       </c>
       <c r="C20">
-        <v>4638000000</v>
+        <v>4505338000</v>
       </c>
       <c r="D20">
-        <v>4302000000</v>
+        <v>4162465000</v>
       </c>
       <c r="E20">
-        <v>4311000000</v>
+        <v>4161422000</v>
       </c>
       <c r="F20">
-        <v>4311000000</v>
+        <v>4160379000</v>
       </c>
       <c r="G20">
         <v>3963622000</v>
@@ -2554,31 +2665,31 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E21">
         <v>825000000</v>
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>19000000</v>
+        <v>47142000</v>
       </c>
       <c r="C22">
-        <v>-60000000</v>
+        <v>3841000</v>
       </c>
       <c r="D22">
-        <v>-50000000</v>
+        <v>3347000</v>
       </c>
       <c r="E22">
-        <v>-36000000</v>
+        <v>3650000</v>
       </c>
       <c r="F22">
-        <v>-25000000</v>
+        <v>3292000</v>
       </c>
       <c r="G22">
         <v>8347000</v>
@@ -2684,23 +2795,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>99000000</v>
+        <v>98968000</v>
       </c>
       <c r="C23">
-        <v>98000000</v>
+        <v>97845000</v>
       </c>
       <c r="D23">
-        <v>105000000</v>
+        <v>104885000</v>
       </c>
       <c r="E23">
-        <v>105000000</v>
+        <v>104132000</v>
       </c>
       <c r="F23">
-        <v>92000000</v>
+        <v>91575000</v>
       </c>
       <c r="G23">
         <v>90957000</v>
@@ -2806,8 +2917,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>4787666000</v>
@@ -2928,23 +3039,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>5855000000</v>
+        <v>5854918000</v>
       </c>
       <c r="C25">
-        <v>5860000000</v>
+        <v>5859798000</v>
       </c>
       <c r="D25">
-        <v>5571000000</v>
+        <v>5571018000</v>
       </c>
       <c r="E25">
-        <v>5670000000</v>
+        <v>5670170000</v>
       </c>
       <c r="F25">
-        <v>5423000000</v>
+        <v>5422694000</v>
       </c>
       <c r="G25">
         <v>5158883000</v>
@@ -3050,8 +3161,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>1504274000</v>
@@ -3172,23 +3283,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>1000000</v>
+        <v>1336000</v>
       </c>
       <c r="C27">
-        <v>1000000</v>
+        <v>1336000</v>
       </c>
       <c r="D27">
-        <v>1000000</v>
+        <v>1336000</v>
       </c>
       <c r="E27">
-        <v>1000000</v>
+        <v>1332000</v>
       </c>
       <c r="F27">
-        <v>1000000</v>
+        <v>1332000</v>
       </c>
       <c r="G27">
         <v>1331000</v>
@@ -3294,23 +3405,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>3359000000</v>
+        <v>3358892000</v>
       </c>
       <c r="C28">
-        <v>3244000000</v>
+        <v>3243654000</v>
       </c>
       <c r="D28">
-        <v>3118000000</v>
+        <v>3117660000</v>
       </c>
       <c r="E28">
-        <v>2977000000</v>
+        <v>2976517000</v>
       </c>
       <c r="F28">
-        <v>2869000000</v>
+        <v>2869127000</v>
       </c>
       <c r="G28">
         <v>2785727000</v>
@@ -3416,8 +3527,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>5867881000</v>
@@ -3538,23 +3649,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>-1077000000</v>
+        <v>-1077391000</v>
       </c>
       <c r="C30">
-        <v>-1026000000</v>
+        <v>-1026446000</v>
       </c>
       <c r="D30">
-        <v>-879000000</v>
+        <v>-879188600</v>
       </c>
       <c r="E30">
-        <v>-163000000</v>
+        <v>-163466900</v>
       </c>
       <c r="F30">
-        <v>-280000000</v>
+        <v>-280025100</v>
       </c>
       <c r="G30">
         <v>-367806900</v>
@@ -3660,23 +3771,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>-1077000000</v>
+        <v>-1077391000</v>
       </c>
       <c r="C31">
-        <v>-1026000000</v>
+        <v>-1026446000</v>
       </c>
       <c r="D31">
-        <v>-879000000</v>
+        <v>-879189000</v>
       </c>
       <c r="E31">
-        <v>-163000000</v>
+        <v>-163467000</v>
       </c>
       <c r="F31">
-        <v>-280000000</v>
+        <v>-280025000</v>
       </c>
       <c r="G31">
         <v>-367807000</v>
@@ -3782,8 +3893,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>4777527000</v>
@@ -3904,8 +4015,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>80121000</v>
@@ -4026,8 +4137,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-3869114000</v>
@@ -4148,23 +4259,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>3806000000</v>
+        <v>3645890000</v>
       </c>
       <c r="C35">
-        <v>3827000000</v>
+        <v>3669570000</v>
       </c>
       <c r="D35">
-        <v>3646000000</v>
+        <v>3506150000</v>
       </c>
       <c r="E35">
-        <v>2913000000</v>
+        <v>2762973000</v>
       </c>
       <c r="F35">
-        <v>3049000000</v>
+        <v>2898715000</v>
       </c>
       <c r="G35">
         <v>2012620000</v>
@@ -4270,23 +4381,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>4673000000</v>
+        <v>4513002000</v>
       </c>
       <c r="C36">
-        <v>4669000000</v>
+        <v>4511870000</v>
       </c>
       <c r="D36">
-        <v>4325000000</v>
+        <v>4185465000</v>
       </c>
       <c r="E36">
-        <v>4334000000</v>
+        <v>4184422000</v>
       </c>
       <c r="F36">
-        <v>4334000000</v>
+        <v>4183379000</v>
       </c>
       <c r="G36">
         <v>3984622000</v>
